--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Case</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>BillPayment_MultiPayment_SpecificAmount</t>
+  </si>
+  <si>
+    <t>consumer_number_label_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +539,7 @@
     <col min="27" max="27" width="132.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +621,11 @@
       <c r="AA1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -692,8 +701,11 @@
       <c r="AA2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -769,8 +781,11 @@
       <c r="AA3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -778,7 +793,7 @@
       <c r="H4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -786,7 +801,7 @@
       <c r="H5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -794,7 +809,7 @@
       <c r="H6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -802,7 +817,7 @@
       <c r="H7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -810,7 +825,7 @@
       <c r="H8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -818,7 +833,7 @@
       <c r="H9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Case</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT LP.BILL_STATUS_ID FROM LP_BILLS LP WHERE LP.CONSUMER_NO = '{ConsumerNo}' and BILLING_MONTH = To_DATE('" + {Billing_Month} + "', 'dd/MM/YYYY')</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>paid_marking_query</t>
+  </si>
+  <si>
+    <t>LP_BillStatus_query</t>
+  </si>
+  <si>
+    <t>partial_payment_check_query</t>
+  </si>
+  <si>
+    <t>partial_payment_amount</t>
   </si>
 </sst>
 </file>
@@ -516,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +560,7 @@
     <col min="27" max="27" width="132.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +645,20 @@
       <c r="AB1" t="s">
         <v>54</v>
       </c>
+      <c r="AC1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -704,8 +737,20 @@
       <c r="AB2" t="s">
         <v>55</v>
       </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -784,8 +829,20 @@
       <c r="AB3" t="s">
         <v>55</v>
       </c>
+      <c r="AC3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -793,7 +850,7 @@
       <c r="H4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -801,7 +858,7 @@
       <c r="H5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -809,7 +866,7 @@
       <c r="H6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -817,7 +874,7 @@
       <c r="H7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -825,7 +882,7 @@
       <c r="H8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -833,7 +890,7 @@
       <c r="H9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -93,9 +93,6 @@
     <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
-  </si>
-  <si>
     <t>account_no</t>
   </si>
   <si>
@@ -174,40 +171,43 @@
     <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
   </si>
   <si>
-    <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND PB.IS_ACTIVE = 1)</t>
+    <t>BillPayment_MultiPayment_SpecificAmount</t>
+  </si>
+  <si>
+    <t>consumer_number_label_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT LP.BILL_STATUS_ID FROM LP_BILLS LP WHERE LP.CONSUMER_NO = '{ConsumerNo}' and BILLING_MONTH = To_DATE('" + {Billing_Month} + "', 'dd/MM/YYYY')</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>paid_marking_query</t>
+  </si>
+  <si>
+    <t>LP_BillStatus_query</t>
+  </si>
+  <si>
+    <t>partial_payment_check_query</t>
+  </si>
+  <si>
+    <t>partial_payment_amount</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE,LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
   </si>
   <si>
     <t>BillPayment_MultiPayment_MaxBill</t>
   </si>
   <si>
-    <t>BillPayment_MultiPayment_SpecificAmount</t>
-  </si>
-  <si>
-    <t>consumer_number_label_query</t>
-  </si>
-  <si>
-    <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>SELECT CH.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>SELECT LP.BILL_STATUS_ID FROM LP_BILLS LP WHERE LP.CONSUMER_NO = '{ConsumerNo}' and BILLING_MONTH = To_DATE('" + {Billing_Month} + "', 'dd/MM/YYYY')</t>
-  </si>
-  <si>
-    <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
-    <t>paid_marking_query</t>
-  </si>
-  <si>
-    <t>LP_BillStatus_query</t>
-  </si>
-  <si>
-    <t>partial_payment_check_query</t>
-  </si>
-  <si>
-    <t>partial_payment_amount</t>
+    <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{Username}') AND PB.IS_ACTIVE = 1)</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AF3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -613,75 +613,75 @@
         <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
-        <v>29</v>
-      </c>
       <c r="Y1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" t="s">
         <v>59</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I2">
         <v>12345678</v>
@@ -711,40 +711,43 @@
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
         <v>55</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>58</v>
       </c>
       <c r="AF2">
         <v>2</v>
@@ -752,28 +755,28 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I3">
         <v>12345678</v>
@@ -803,40 +806,37 @@
         <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
         <v>40</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
         <v>53</v>
       </c>
-      <c r="V3">
-        <v>1000</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" t="s">
         <v>55</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>58</v>
       </c>
       <c r="AF3">
         <v>2</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -214,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,33 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,8 +285,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,44 +896,388 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
   <si>
     <t>Case</t>
   </si>
@@ -111,24 +111,6 @@
     <t>expiry_date</t>
   </si>
   <si>
-    <t>MEPCO</t>
-  </si>
-  <si>
-    <t>MEPCO001</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 05151110478500</t>
-  </si>
-  <si>
-    <t>05151110478500</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 05151110478600</t>
-  </si>
-  <si>
-    <t>05151110478600</t>
-  </si>
-  <si>
     <t>instrument_type</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
   </si>
   <si>
-    <t>Abbs</t>
-  </si>
-  <si>
     <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL i where I.APPLICATION_PARAMETER_ID='906'</t>
   </si>
   <si>
@@ -159,18 +138,6 @@
     <t>BillPayment_ConsumerNo_Value</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
     <t>BillPayment_MultiPayment_SpecificAmount</t>
   </si>
   <si>
@@ -208,13 +175,209 @@
   </si>
   <si>
     <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{Username}') AND PB.IS_ACTIVE = 1)</t>
+  </si>
+  <si>
+    <t>Electricity Bill Payment</t>
+  </si>
+  <si>
+    <t>K-ELECTRIC</t>
+  </si>
+  <si>
+    <t>0400000064074</t>
+  </si>
+  <si>
+    <t>KESC0001</t>
+  </si>
+  <si>
+    <t>00967900447303</t>
+  </si>
+  <si>
+    <t>Electricity only Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Water / Sanitation Bill Payment</t>
+  </si>
+  <si>
+    <t>KWSB</t>
+  </si>
+  <si>
+    <t>65009121400031</t>
+  </si>
+  <si>
+    <t>KWSB0001</t>
+  </si>
+  <si>
+    <t>Water Pass and OTP</t>
+  </si>
+  <si>
+    <t>Gas Bill Payment</t>
+  </si>
+  <si>
+    <t>SSGC</t>
+  </si>
+  <si>
+    <t>0958391000</t>
+  </si>
+  <si>
+    <t>SSGC0001</t>
+  </si>
+  <si>
+    <t>Gas Only OTP</t>
+  </si>
+  <si>
+    <t>Landline Bill Payment</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>1756154</t>
+  </si>
+  <si>
+    <t>SCO00001</t>
+  </si>
+  <si>
+    <t>Landline No Pass OTP</t>
+  </si>
+  <si>
+    <t>2233281000</t>
+  </si>
+  <si>
+    <t>max amount 5 lac</t>
+  </si>
+  <si>
+    <t>0400000850959</t>
+  </si>
+  <si>
+    <t>max amount 0</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>65009110400034</t>
+  </si>
+  <si>
+    <t>Max amount 10</t>
+  </si>
+  <si>
+    <t>0400000850576</t>
+  </si>
+  <si>
+    <t>22647000000401</t>
+  </si>
+  <si>
+    <t>prestige1</t>
+  </si>
+  <si>
+    <t>0400000850819</t>
+  </si>
+  <si>
+    <t>07867918480299</t>
+  </si>
+  <si>
+    <t>nrp1</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity K-ELECTRIC KESC0001 where only password is required_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water KWSB KWSB0001 where password and OTP both are required_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas SSGC SSGC0001 where only OTP is required_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline SCO SCO00001 where OTP and password both are NOT required_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When valid bill details Gas SSGC SSGC0001 0004166544 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">max amount 5 lac </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only OTP_MBBILLPAYSCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When valid bill details Electricity KESC0001 0400000064368 only Password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max amount 0_MBBILLPAYSCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When valid bill details are provided of Water KWSB KWSB0001 where password and OTP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max amount 10_MBBILLPAYSCH</t>
+    </r>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment PRESTIGE_MBBILLPRESTIGE</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment NRP_MBBILLNRP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +418,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -292,6 +463,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +772,11 @@
     <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="132.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -653,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="T1" t="s">
         <v>29</v>
@@ -671,54 +850,51 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AE1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>12345678</v>
@@ -748,72 +924,65 @@
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V2">
-        <v>1000</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I3">
         <v>12345678</v>
@@ -843,347 +1012,701 @@
         <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>12345678</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5">
+        <v>12345678</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>12345678</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6">
+        <v>500000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>12345678</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="I8">
+        <v>12345678</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>12345678</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>12345678</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1207,7 +1730,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1231,7 +1754,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1255,7 +1778,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="97">
   <si>
     <t>Case</t>
   </si>
@@ -177,9 +177,6 @@
     <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{Username}') AND PB.IS_ACTIVE = 1)</t>
   </si>
   <si>
-    <t>Electricity Bill Payment</t>
-  </si>
-  <si>
     <t>K-ELECTRIC</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Water / Sanitation Bill Payment</t>
-  </si>
-  <si>
     <t>KWSB</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>Water Pass and OTP</t>
   </si>
   <si>
-    <t>Gas Bill Payment</t>
-  </si>
-  <si>
     <t>SSGC</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>Gas Only OTP</t>
   </si>
   <si>
-    <t>Landline Bill Payment</t>
-  </si>
-  <si>
     <t>SCO</t>
   </si>
   <si>
@@ -282,102 +270,53 @@
     <t>nrp1</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>When valid bill details are provided of Electricity K-ELECTRIC KESC0001 where only password is required_MBBILLPAYSCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water KWSB KWSB0001 where password and OTP both are required_MBBILLPAYSCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Gas SSGC SSGC0001 where only OTP is required_MBBILLPAYSCH</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Landline SCO SCO00001 where OTP and password both are NOT required_MBBILLPAYSCH</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When valid bill details Gas SSGC SSGC0001 0004166544 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">max amount 5 lac </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>only OTP_MBBILLPAYSCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When valid bill details Electricity KESC0001 0400000064368 only Password </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max amount 0_MBBILLPAYSCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When valid bill details are provided of Water KWSB KWSB0001 where password and OTP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max amount 10_MBBILLPAYSCH</t>
-    </r>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Electricity bill payment PRESTIGE_MBBILLPRESTIGE</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Electricity bill payment NRP_MBBILLNRP</t>
+    <t>When valid bill details are provided of Electricity and only password is required_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment PRESTIGE_AddNewSch_MBBILLPRESTIGE</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment NRP_AddNewSch_MBBILLNRP</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Landline</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>When valid bill details KESC0001 and Password is req max amount 0_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details SSGC0001 max amount 5 lac only OTP_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided KWSB and tran pass and otp req max amount 10_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided SCO00001 where OTP and password both are NOT required_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided SSGC0001 where only OTP is required_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of KWSB0001 where password and OTP both are required_AddNewSch_MBBILLPAYSCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,14 +353,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -754,11 +685,14 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -874,27 +808,27 @@
         <v>48</v>
       </c>
       <c r="AG1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2">
         <v>12345678</v>
@@ -924,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>33</v>
@@ -933,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
         <v>32</v>
@@ -960,29 +894,29 @@
         <v>44</v>
       </c>
       <c r="AG2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>12345678</v>
@@ -1012,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>33</v>
@@ -1021,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
         <v>32</v>
@@ -1048,29 +982,29 @@
         <v>44</v>
       </c>
       <c r="AG3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>12345678</v>
@@ -1100,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>33</v>
@@ -1109,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
         <v>32</v>
@@ -1136,29 +1070,29 @@
         <v>44</v>
       </c>
       <c r="AG4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I5">
         <v>12345678</v>
@@ -1188,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>33</v>
@@ -1197,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s">
         <v>32</v>
@@ -1224,29 +1158,29 @@
         <v>44</v>
       </c>
       <c r="AG5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6">
         <v>12345678</v>
@@ -1276,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>33</v>
@@ -1288,7 +1222,7 @@
         <v>500000</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
         <v>32</v>
@@ -1315,29 +1249,29 @@
         <v>44</v>
       </c>
       <c r="AG6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7">
         <v>12345678</v>
@@ -1367,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>33</v>
@@ -1379,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s">
         <v>32</v>
@@ -1406,29 +1340,29 @@
         <v>44</v>
       </c>
       <c r="AG7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>12345678</v>
@@ -1458,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>33</v>
@@ -1470,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s">
         <v>32</v>
@@ -1497,29 +1431,29 @@
         <v>44</v>
       </c>
       <c r="AG8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9">
         <v>12345678</v>
@@ -1549,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>33</v>
@@ -1558,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
         <v>32</v>
@@ -1585,29 +1519,29 @@
         <v>44</v>
       </c>
       <c r="AG9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10">
         <v>12345678</v>
@@ -1637,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>33</v>
@@ -1646,7 +1580,7 @@
         <v>39</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s">
         <v>32</v>
@@ -1673,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="AG10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(Schedule).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
   <si>
     <t>Case</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>When valid bill details are provided of KWSB0001 where password and OTP both are required_AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
   </si>
 </sst>
 </file>
@@ -682,35 +688,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="114.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="132.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="40" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="132.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40" customWidth="1"/>
+    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,1020 +727,1030 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12345678</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12345678</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>61</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12345678</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>50</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>65</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>57</v>
       </c>
-      <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12345678</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>39</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>69</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>57</v>
       </c>
-      <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>88</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12345678</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>500000</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>71</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>41</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>42</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>43</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>44</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>57</v>
       </c>
-      <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12345678</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>39</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>73</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>34</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>35</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>44</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>74</v>
       </c>
-      <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12345678</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>10</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>11</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>50</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>10</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>76</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>35</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>41</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>43</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>44</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>57</v>
       </c>
-      <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12345678</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>39</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>79</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>41</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>43</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>44</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>12345678</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>10</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>9</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>11</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>39</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>82</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>32</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>41</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>42</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>44</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>57</v>
       </c>
-      <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH11" s="1"/>
+      <c r="AJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH12" s="1"/>
+      <c r="AJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH13" s="1"/>
+      <c r="AJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH14" s="1"/>
+      <c r="AJ13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH15" s="1"/>
+      <c r="AJ14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH16" s="1"/>
+      <c r="AJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH17" s="1"/>
+      <c r="AJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="5"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="5"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
